--- a/biology/Zoologie/Heterohorus_losfrailensis/Heterohorus_losfrailensis.xlsx
+++ b/biology/Zoologie/Heterohorus_losfrailensis/Heterohorus_losfrailensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterohorus losfrailensis, unique représentant du genre Heterohorus, est une espèce de pseudoscorpions de la famille des Olpiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Dépendances fédérales au Venezuela[1]. Elle se rencontre dans l'archipel de Los Frailes et sur l'île de la Tortue.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Dépendances fédérales au Venezuela. Elle se rencontre dans l'archipel de Los Frailes et sur l'île de la Tortue.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle paratype mesure 2,075 mm et les femelles mesurent de 2,12 à 2,145 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle paratype mesure 2,075 mm et les femelles mesurent de 2,12 à 2,145 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de losfrail[es] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, l'archipel de Los Frailes.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tooren, 2011 : New records of olpiid pseudoscorpions (Pseudoscorpiones: Olpiidae) from the Caribbean area and Surinam, with descriptions of four new species of the genera Pachyolpium Beier, Tricholpium gen. nov. and Heterohorus gen. nov. Zoologische Mededelingen, vol. 85, no 1, p. 169–194 (texte intégral).</t>
         </is>
